--- a/forms/app/referral_follow_up.xlsx
+++ b/forms/app/referral_follow_up.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PatientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/_id</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no</t>
@@ -224,13 +236,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.18"/>
@@ -276,7 +288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -286,22 +298,36 @@
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -326,11 +352,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -341,24 +367,24 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +409,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
@@ -391,45 +417,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
